--- a/mhGAP/template/PlantillasMhGap.xlsx
+++ b/mhGAP/template/PlantillasMhGap.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mi_ambiente\labs\airHealth\airHealth\template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mi_ambiente\labs\mhGAP\mhGAP\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78B0C492-0624-40BB-B7D5-38532193457D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80C4BFB1-515F-4F1C-BADD-D83EE0CA1E0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18675" yWindow="1095" windowWidth="2400" windowHeight="585" xr2:uid="{F4637102-F08A-477A-8833-6EF0D49D7225}"/>
+    <workbookView xWindow="1635" yWindow="1950" windowWidth="18780" windowHeight="7875" xr2:uid="{F4637102-F08A-477A-8833-6EF0D49D7225}"/>
   </bookViews>
   <sheets>
     <sheet name="Depresion" sheetId="1" r:id="rId1"/>
@@ -34,32 +34,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
-  <si>
-    <t>NumeroFase</t>
-  </si>
-  <si>
-    <t>NombreFase</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>¿Tiene la Persona Depresión?</t>
   </si>
   <si>
-    <t>EnunciadoPregunta</t>
-  </si>
-  <si>
     <t>¿Ha tenido la persona al menos uno de los siguientes síntomas básicos de la depresión durante al menos dos semanas?</t>
   </si>
   <si>
-    <t>NumeroPregunta</t>
-  </si>
-  <si>
     <t>NumeroRespuesta</t>
   </si>
   <si>
-    <t>EnunciadoRespuesta</t>
-  </si>
-  <si>
     <t>&amp;nbsp;Estado de ánimo deprimido persistente</t>
   </si>
   <si>
@@ -75,16 +60,43 @@
     <t>PasoNo</t>
   </si>
   <si>
-    <t>Color</t>
-  </si>
-  <si>
-    <t>icono</t>
-  </si>
-  <si>
     <t>depre.png</t>
   </si>
   <si>
-    <t>#ff0011</t>
+    <t>_FASE_ICONO</t>
+  </si>
+  <si>
+    <t>_FASE_COLOR</t>
+  </si>
+  <si>
+    <t>_FASE_NUMERO</t>
+  </si>
+  <si>
+    <t>_FASE_NOMBRE</t>
+  </si>
+  <si>
+    <t>Evaluación</t>
+  </si>
+  <si>
+    <t>_PASO_NUMERO</t>
+  </si>
+  <si>
+    <t>_PASO_COLOR</t>
+  </si>
+  <si>
+    <t>#f08900</t>
+  </si>
+  <si>
+    <t>_PASO_ENUNCIADO</t>
+  </si>
+  <si>
+    <t>_PREGUNTA_NUMERO</t>
+  </si>
+  <si>
+    <t>_ENUNCIADO_PREGUNTA</t>
+  </si>
+  <si>
+    <t>_PREGUNTA_RESPUESTAS</t>
   </si>
 </sst>
 </file>
@@ -437,59 +449,71 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5093C2C-C25D-49AC-BC0D-CC797D2F9547}">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="27.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.42578125" customWidth="1"/>
-    <col min="7" max="7" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="43" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="16.28515625" customWidth="1"/>
+    <col min="7" max="7" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="28" customWidth="1"/>
+    <col min="10" max="10" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="43" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
         <v>14</v>
       </c>
-      <c r="B1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="M1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="N1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K1" t="s">
-        <v>12</v>
-      </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
         <v>16</v>
@@ -497,23 +521,32 @@
       <c r="C2">
         <v>1</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>2</v>
+      <c r="D2" t="s">
+        <v>13</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L2" t="s">
         <v>4</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/mhGAP/template/PlantillasMhGap.xlsx
+++ b/mhGAP/template/PlantillasMhGap.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mi_ambiente\labs\mhGAP\mhGAP\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80C4BFB1-515F-4F1C-BADD-D83EE0CA1E0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49B36DDE-4F89-4AFA-8515-CA7ED9B39D1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1635" yWindow="1950" windowWidth="18780" windowHeight="7875" xr2:uid="{F4637102-F08A-477A-8833-6EF0D49D7225}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{F4637102-F08A-477A-8833-6EF0D49D7225}"/>
   </bookViews>
   <sheets>
-    <sheet name="Depresion" sheetId="1" r:id="rId1"/>
+    <sheet name="Epilepsia" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,34 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
-  <si>
-    <t>¿Tiene la Persona Depresión?</t>
-  </si>
-  <si>
-    <t>¿Ha tenido la persona al menos uno de los siguientes síntomas básicos de la depresión durante al menos dos semanas?</t>
-  </si>
-  <si>
-    <t>NumeroRespuesta</t>
-  </si>
-  <si>
-    <t>&amp;nbsp;Estado de ánimo deprimido persistente</t>
-  </si>
-  <si>
-    <t>AlMenosUna</t>
-  </si>
-  <si>
-    <t>CondicionPasar</t>
-  </si>
-  <si>
-    <t>PasoSi</t>
-  </si>
-  <si>
-    <t>PasoNo</t>
-  </si>
-  <si>
-    <t>depre.png</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="31">
   <si>
     <t>_FASE_ICONO</t>
   </si>
@@ -75,18 +48,12 @@
     <t>_FASE_NOMBRE</t>
   </si>
   <si>
-    <t>Evaluación</t>
-  </si>
-  <si>
     <t>_PASO_NUMERO</t>
   </si>
   <si>
     <t>_PASO_COLOR</t>
   </si>
   <si>
-    <t>#f08900</t>
-  </si>
-  <si>
     <t>_PASO_ENUNCIADO</t>
   </si>
   <si>
@@ -97,16 +64,93 @@
   </si>
   <si>
     <t>_PREGUNTA_RESPUESTAS</t>
+  </si>
+  <si>
+    <t>#0087c8</t>
+  </si>
+  <si>
+    <t>urgencia.png</t>
+  </si>
+  <si>
+    <t>Casos de Urgencia: La persona sufre convulsiones o está rigida y no responde.</t>
+  </si>
+  <si>
+    <t>Paso: ¿Hay signos de alguna lesión en la cabeza o en el cuello?</t>
+  </si>
+  <si>
+    <t>_NUMERO_RESPUESTA</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Consejo Clinico:&lt;b&gt; Se deben realizar simultáneamente la evaluación y el manejo.</t>
+  </si>
+  <si>
+    <t>&lt;li&gt;Mantenga Estables la cabeza y el Cuello&lt;/li&gt;</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t>PASO_2</t>
+  </si>
+  <si>
+    <t>PASO_1_PREGUNTA_1 &amp;&amp; PASO_2</t>
+  </si>
+  <si>
+    <t>Paso: Consideraciones</t>
+  </si>
+  <si>
+    <t>Pertenece al Grupo Especial de Población: Embarazo/Posparto</t>
+  </si>
+  <si>
+    <t>PASO_3</t>
+  </si>
+  <si>
+    <t>FASE_1</t>
+  </si>
+  <si>
+    <t>&lt;li&gt;Examine LAS VÍAS RESPIRATORIAS, LA RESPIRACIÓN Y LA  CIRCULACIÓN. Asegúrese de que la persona no tiene nada en sus vías respiratorias, está respirando bien y tiene un pulso estable. &lt;/b&gt;
+&lt;li&gt;Verifique la PRESIÓN ARTERIAL, la TEMPERATURA y la FRECUENCIARESPIRATORIA.&lt;/li&gt;
+&lt;li&gt;Comience a tomar el tiempo que duran las convulsiones, si es posible.&lt;/li&gt;
+&lt;li&gt;Asegúrese de que la persona está en un lugar seguro y, si es  posible, póngala de costado para facilitar la respiración; afloje la corbata o toda prenda colocada alrededor del cuello, quítele los  anteojos y, si hay, ponga algo blando bajo la cabeza. &lt;/li&gt;
+&lt;li&gt; Instale la venoclisis para administrar medicamentos 
+o líquido si es posible.&lt;/li&gt;
+&lt;li&gt;&amp;#128721; &lt;b&gt;NO DEJE SOLA A LA PERSONA&lt;/b&gt;&lt;li&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paso:  ¿Está la mujer en la segunda mitad del embarazo O en la primera semanadespués del parto Y no tiene ningún antecedente de epilepsia?   </t>
+  </si>
+  <si>
+    <t>PASO_3_PREGUNTA_1</t>
+  </si>
+  <si>
+    <t>PASO_4</t>
+  </si>
+  <si>
+    <t>SOSPECHA QUE SE TRATADE ECLAMPSIA</t>
+  </si>
+  <si>
+    <t>&lt;li&gt;   Administre 10 g de sulfato de magnesio por vía intramuscular (i.m.).&lt;/li&gt;
+ &lt;li&gt;Si la presión arterial diastólica es &gt;110  mmHg, administre lentamente  (en 3 a 4 min)  5 mg de hidralazina por vía intravenosa. Repita la dosis cada 30 min hasta llegar a ≤ 90 mmHg. &lt;/li&gt; &lt;li&gt; &amp;#128683; No administre más de 20 mg en total. &lt;/li&gt;&lt;li&gt; &amp;#9889; DERIVE A LA PACIENTE
+URGENTEMENTE AL HOSPITAL &amp;#128657;&lt;/li&gt;</t>
+  </si>
+  <si>
+    <t>NO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -132,9 +176,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -449,10 +498,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5093C2C-C25D-49AC-BC0D-CC797D2F9547}">
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -461,95 +510,412 @@
     <col min="3" max="6" width="16.28515625" customWidth="1"/>
     <col min="7" max="7" width="27.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="28" customWidth="1"/>
-    <col min="10" max="10" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="52.7109375" customWidth="1"/>
+    <col min="10" max="10" width="21" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="43" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="B1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="L1" t="s">
         <v>17</v>
       </c>
-      <c r="H1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J1" t="s">
-        <v>2</v>
-      </c>
-      <c r="K1" t="s">
-        <v>20</v>
-      </c>
-      <c r="L1" t="s">
-        <v>5</v>
-      </c>
       <c r="M1" t="s">
-        <v>6</v>
-      </c>
-      <c r="N1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H2">
+    </row>
+    <row r="4" spans="1:13" ht="240" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5">
         <v>1</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" t="s">
+        <v>25</v>
+      </c>
+      <c r="L6" t="s">
+        <v>26</v>
+      </c>
+      <c r="M6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="360" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7">
         <v>1</v>
       </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
-      <c r="K2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L2" t="s">
-        <v>4</v>
+      <c r="I7" t="s">
+        <v>28</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/mhGAP/template/PlantillasMhGap.xlsx
+++ b/mhGAP/template/PlantillasMhGap.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mi_ambiente\labs\mhGAP\mhGAP\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49B36DDE-4F89-4AFA-8515-CA7ED9B39D1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A5A09D2-4F53-456C-B315-5CF08A94003E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{F4637102-F08A-477A-8833-6EF0D49D7225}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="31">
   <si>
     <t>_FASE_ICONO</t>
   </si>
@@ -498,10 +498,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5093C2C-C25D-49AC-BC0D-CC797D2F9547}">
-  <dimension ref="A1:M18"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="G1" sqref="G1"/>
+      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -727,193 +729,6 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14" t="s">
-        <v>12</v>
-      </c>
-      <c r="F14" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>11</v>
-      </c>
-      <c r="B16" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="D16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F16" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>11</v>
-      </c>
-      <c r="B17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="D17" t="s">
-        <v>12</v>
-      </c>
-      <c r="F17" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>11</v>
-      </c>
-      <c r="B18" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18" t="s">
-        <v>12</v>
-      </c>
-      <c r="F18" t="s">
-        <v>10</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/mhGAP/template/PlantillasMhGap.xlsx
+++ b/mhGAP/template/PlantillasMhGap.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mi_ambiente\labs\mhGAP\mhGAP\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A5A09D2-4F53-456C-B315-5CF08A94003E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E0ABEA8-E53A-4212-9F81-0DC83AB4F63B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{F4637102-F08A-477A-8833-6EF0D49D7225}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="32">
   <si>
     <t>_FASE_ICONO</t>
   </si>
@@ -135,6 +135,9 @@
   </si>
   <si>
     <t>NO</t>
+  </si>
+  <si>
+    <t>Evaluación</t>
   </si>
 </sst>
 </file>
@@ -498,12 +501,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5093C2C-C25D-49AC-BC0D-CC797D2F9547}">
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="G1" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
+      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -729,6 +732,20 @@
         <v>29</v>
       </c>
     </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/mhGAP/template/PlantillasMhGap.xlsx
+++ b/mhGAP/template/PlantillasMhGap.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mi_ambiente\labs\mhGAP\mhGAP\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E0ABEA8-E53A-4212-9F81-0DC83AB4F63B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{175B16E7-C761-4565-9C27-920C693F8857}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{F4637102-F08A-477A-8833-6EF0D49D7225}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="33">
   <si>
     <t>_FASE_ICONO</t>
   </si>
@@ -138,6 +138,9 @@
   </si>
   <si>
     <t>Evaluación</t>
+  </si>
+  <si>
+    <t>evaluacion.png</t>
   </si>
 </sst>
 </file>
@@ -506,7 +509,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="G1" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
+      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -734,7 +737,7 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="B8" t="s">
         <v>10</v>

--- a/mhGAP/template/PlantillasMhGap.xlsx
+++ b/mhGAP/template/PlantillasMhGap.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mi_ambiente\labs\mhGAP\mhGAP\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{175B16E7-C761-4565-9C27-920C693F8857}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2B18FB2-60A4-4786-9785-DCC24F331F4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{F4637102-F08A-477A-8833-6EF0D49D7225}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="35">
   <si>
     <t>_FASE_ICONO</t>
   </si>
@@ -141,6 +141,12 @@
   </si>
   <si>
     <t>evaluacion.png</t>
+  </si>
+  <si>
+    <t>¿Tiene la Persona Crisis Convulsivas?</t>
+  </si>
+  <si>
+    <t>¿Ha Tenido la Persona Movimientos Convulsivos que duraran más de 1 ó 2 minutos?</t>
   </si>
 </sst>
 </file>
@@ -506,10 +512,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5093C2C-C25D-49AC-BC0D-CC797D2F9547}">
   <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="G1" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
+      <selection pane="bottomLeft" activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -748,6 +754,21 @@
       <c r="D8" t="s">
         <v>31</v>
       </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8" t="s">
+        <v>34</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/mhGAP/template/PlantillasMhGap.xlsx
+++ b/mhGAP/template/PlantillasMhGap.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mi_ambiente\labs\mhGAP\mhGAP\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2B18FB2-60A4-4786-9785-DCC24F331F4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B658BA0-DE25-4CB6-9952-5A4E98055C38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{F4637102-F08A-477A-8833-6EF0D49D7225}"/>
   </bookViews>
@@ -146,7 +146,7 @@
     <t>¿Tiene la Persona Crisis Convulsivas?</t>
   </si>
   <si>
-    <t>¿Ha Tenido la Persona Movimientos Convulsivos que duraran más de 1 ó 2 minutos?</t>
+    <t>_PREGUNTA+I8RESPUESTAS</t>
   </si>
 </sst>
 </file>
@@ -512,10 +512,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5093C2C-C25D-49AC-BC0D-CC797D2F9547}">
   <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="G1" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="I8" sqref="I8"/>
+      <selection pane="bottomLeft" activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -592,7 +592,7 @@
       <c r="G2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
         <v>15</v>
       </c>
       <c r="L2" t="s">
@@ -628,7 +628,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="240" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="315" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -650,7 +650,7 @@
       <c r="G4" t="s">
         <v>20</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="K4" s="2" t="s">
         <v>24</v>
       </c>
     </row>
@@ -715,7 +715,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="360" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="150" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -737,7 +737,7 @@
       <c r="I7" t="s">
         <v>28</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="K7" s="2" t="s">
         <v>29</v>
       </c>
     </row>

--- a/mhGAP/template/PlantillasMhGap.xlsx
+++ b/mhGAP/template/PlantillasMhGap.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mi_ambiente\labs\mhGAP\mhGAP\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B658BA0-DE25-4CB6-9952-5A4E98055C38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5936C35D-4E02-40E5-AB1B-ECD0B7D0F35C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{F4637102-F08A-477A-8833-6EF0D49D7225}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="40">
   <si>
     <t>_FASE_ICONO</t>
   </si>
@@ -147,6 +147,21 @@
   </si>
   <si>
     <t>_PREGUNTA+I8RESPUESTAS</t>
+  </si>
+  <si>
+    <t>amigos.png</t>
+  </si>
+  <si>
+    <t>#f08900</t>
+  </si>
+  <si>
+    <t>Prueba</t>
+  </si>
+  <si>
+    <t>El planeta es curvo</t>
+  </si>
+  <si>
+    <t>Una pregubta</t>
   </si>
 </sst>
 </file>
@@ -510,12 +525,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5093C2C-C25D-49AC-BC0D-CC797D2F9547}">
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="G1" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="K1" sqref="K1"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -770,6 +785,35 @@
         <v>34</v>
       </c>
     </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G9" t="s">
+        <v>38</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9" t="s">
+        <v>39</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/mhGAP/template/PlantillasMhGap.xlsx
+++ b/mhGAP/template/PlantillasMhGap.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mi_ambiente\labs\mhGAP\mhGAP\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5936C35D-4E02-40E5-AB1B-ECD0B7D0F35C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{760BD2B9-80E7-4D9A-984D-0ED02C17A85C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{F4637102-F08A-477A-8833-6EF0D49D7225}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Epilepsia" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -528,9 +529,9 @@
   <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="G1" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
